--- a/temp/timesheet_detailed.xlsx
+++ b/temp/timesheet_detailed.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -34,25 +34,19 @@
     <t>29 Aug 24</t>
   </si>
   <si>
-    <t>07:19</t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>30 Aug 24</t>
-  </si>
-  <si>
-    <t>08:22</t>
-  </si>
-  <si>
-    <t>17:26</t>
-  </si>
-  <si>
-    <t>31 Aug 24</t>
-  </si>
-  <si>
-    <t>15:27</t>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>01 Sept 24</t>
+  </si>
+  <si>
+    <t>20:32</t>
+  </si>
+  <si>
+    <t>03:35</t>
   </si>
   <si>
     <t>Total for yeasir afgan</t>
@@ -61,7 +55,7 @@
     <t/>
   </si>
   <si>
-    <t>19.15</t>
+    <t>14.56</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -441,12 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
@@ -482,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3.06</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,58 +492,41 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>9.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>7.05</v>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/temp/timesheet_detailed.xlsx
+++ b/temp/timesheet_detailed.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -34,19 +34,10 @@
     <t>29 Aug 24</t>
   </si>
   <si>
-    <t>05:25</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>01 Sept 24</t>
-  </si>
-  <si>
-    <t>20:32</t>
-  </si>
-  <si>
-    <t>03:35</t>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>17:48</t>
   </si>
   <si>
     <t>Total for yeasir afgan</t>
@@ -55,7 +46,7 @@
     <t/>
   </si>
   <si>
-    <t>14.56</t>
+    <t>4.00</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -435,11 +426,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
@@ -475,24 +467,24 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>7.53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>7.03</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,33 +492,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/temp/timesheet_detailed.xlsx
+++ b/temp/timesheet_detailed.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -28,28 +28,58 @@
     <t>Hours Worked</t>
   </si>
   <si>
+    <t>Magdalena Studencka</t>
+  </si>
+  <si>
+    <t>29 Aug 24</t>
+  </si>
+  <si>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>Total for Magdalena Studencka</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
     <t>yeasir afgan</t>
   </si>
   <si>
-    <t>29 Aug 24</t>
-  </si>
-  <si>
-    <t>13:48</t>
-  </si>
-  <si>
-    <t>17:48</t>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>14:48</t>
   </si>
   <si>
     <t>Total for yeasir afgan</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>4.00</t>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>30 Aug 24</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>6.00</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>17.04</t>
   </si>
 </sst>
 </file>
@@ -426,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -467,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,16 +522,84 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
